--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Adam15-Itga5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Adam15-Itga5.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>68.7695655430103</v>
+        <v>69.00849933333333</v>
       </c>
       <c r="H2">
-        <v>68.7695655430103</v>
+        <v>207.025498</v>
       </c>
       <c r="I2">
-        <v>0.4279240828470165</v>
+        <v>0.4252801448282221</v>
       </c>
       <c r="J2">
-        <v>0.4279240828470165</v>
+        <v>0.425280144828222</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N2">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O2">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P2">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q2">
-        <v>2947.31279319219</v>
+        <v>2961.100465712857</v>
       </c>
       <c r="R2">
-        <v>2947.31279319219</v>
+        <v>26649.90419141572</v>
       </c>
       <c r="S2">
-        <v>0.1049670841094439</v>
+        <v>0.1030295467194727</v>
       </c>
       <c r="T2">
-        <v>0.1049670841094439</v>
+        <v>0.1030295467194727</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>68.7695655430103</v>
+        <v>69.00849933333333</v>
       </c>
       <c r="H3">
-        <v>68.7695655430103</v>
+        <v>207.025498</v>
       </c>
       <c r="I3">
-        <v>0.4279240828470165</v>
+        <v>0.4252801448282221</v>
       </c>
       <c r="J3">
-        <v>0.4279240828470165</v>
+        <v>0.425280144828222</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P3">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q3">
-        <v>3669.506817851197</v>
+        <v>3682.394736892356</v>
       </c>
       <c r="R3">
-        <v>3669.506817851197</v>
+        <v>33141.55263203121</v>
       </c>
       <c r="S3">
-        <v>0.1306876662969948</v>
+        <v>0.1281265073499813</v>
       </c>
       <c r="T3">
-        <v>0.1306876662969948</v>
+        <v>0.1281265073499813</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>68.7695655430103</v>
+        <v>69.00849933333333</v>
       </c>
       <c r="H4">
-        <v>68.7695655430103</v>
+        <v>207.025498</v>
       </c>
       <c r="I4">
-        <v>0.4279240828470165</v>
+        <v>0.4252801448282221</v>
       </c>
       <c r="J4">
-        <v>0.4279240828470165</v>
+        <v>0.425280144828222</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N4">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O4">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P4">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q4">
-        <v>2688.707695879356</v>
+        <v>2759.088458192257</v>
       </c>
       <c r="R4">
-        <v>2688.707695879356</v>
+        <v>24831.79612373031</v>
       </c>
       <c r="S4">
-        <v>0.09575699176245323</v>
+        <v>0.09600067154021479</v>
       </c>
       <c r="T4">
-        <v>0.09575699176245323</v>
+        <v>0.09600067154021477</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>68.7695655430103</v>
+        <v>69.00849933333333</v>
       </c>
       <c r="H5">
-        <v>68.7695655430103</v>
+        <v>207.025498</v>
       </c>
       <c r="I5">
-        <v>0.4279240828470165</v>
+        <v>0.4252801448282221</v>
       </c>
       <c r="J5">
-        <v>0.4279240828470165</v>
+        <v>0.425280144828222</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N5">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O5">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P5">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q5">
-        <v>2285.594450161106</v>
+        <v>2373.302998476694</v>
       </c>
       <c r="R5">
-        <v>2285.594450161106</v>
+        <v>21359.72698629024</v>
       </c>
       <c r="S5">
-        <v>0.08140031334451399</v>
+        <v>0.08257751974050405</v>
       </c>
       <c r="T5">
-        <v>0.08140031334451399</v>
+        <v>0.08257751974050402</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>68.7695655430103</v>
+        <v>69.00849933333333</v>
       </c>
       <c r="H6">
-        <v>68.7695655430103</v>
+        <v>207.025498</v>
       </c>
       <c r="I6">
-        <v>0.4279240828470165</v>
+        <v>0.4252801448282221</v>
       </c>
       <c r="J6">
-        <v>0.4279240828470165</v>
+        <v>0.425280144828222</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N6">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O6">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P6">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q6">
-        <v>424.3222708271178</v>
+        <v>446.7938727296827</v>
       </c>
       <c r="R6">
-        <v>424.3222708271178</v>
+        <v>4021.144854567144</v>
       </c>
       <c r="S6">
-        <v>0.01511202733361051</v>
+        <v>0.01554589947804928</v>
       </c>
       <c r="T6">
-        <v>0.01511202733361051</v>
+        <v>0.01554589947804928</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.1102900908744</v>
+        <v>14.694925</v>
       </c>
       <c r="H7">
-        <v>14.1102900908744</v>
+        <v>44.084775</v>
       </c>
       <c r="I7">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012584</v>
       </c>
       <c r="J7">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012582</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N7">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O7">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P7">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q7">
-        <v>604.7360946969663</v>
+        <v>630.54768153895</v>
       </c>
       <c r="R7">
-        <v>604.7360946969663</v>
+        <v>5674.92913385055</v>
       </c>
       <c r="S7">
-        <v>0.02153737623732896</v>
+        <v>0.02193949261979286</v>
       </c>
       <c r="T7">
-        <v>0.02153737623732896</v>
+        <v>0.02193949261979286</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.1102900908744</v>
+        <v>14.694925</v>
       </c>
       <c r="H8">
-        <v>14.1102900908744</v>
+        <v>44.084775</v>
       </c>
       <c r="I8">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012584</v>
       </c>
       <c r="J8">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012582</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P8">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q8">
-        <v>752.9174465692762</v>
+        <v>784.1427505566667</v>
       </c>
       <c r="R8">
-        <v>752.9174465692762</v>
+        <v>7057.28475501</v>
       </c>
       <c r="S8">
-        <v>0.02681478162889766</v>
+        <v>0.0272837322099318</v>
       </c>
       <c r="T8">
-        <v>0.02681478162889766</v>
+        <v>0.02728373220993179</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.1102900908744</v>
+        <v>14.694925</v>
       </c>
       <c r="H9">
-        <v>14.1102900908744</v>
+        <v>44.084775</v>
       </c>
       <c r="I9">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012584</v>
       </c>
       <c r="J9">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012582</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N9">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O9">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P9">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q9">
-        <v>551.6749343820779</v>
+        <v>587.5304977385083</v>
       </c>
       <c r="R9">
-        <v>551.6749343820779</v>
+        <v>5287.774479646575</v>
       </c>
       <c r="S9">
-        <v>0.01964762931580009</v>
+        <v>0.02044273795056526</v>
       </c>
       <c r="T9">
-        <v>0.01964762931580009</v>
+        <v>0.02044273795056525</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.1102900908744</v>
+        <v>14.694925</v>
       </c>
       <c r="H10">
-        <v>14.1102900908744</v>
+        <v>44.084775</v>
       </c>
       <c r="I10">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012584</v>
       </c>
       <c r="J10">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012582</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N10">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O10">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P10">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q10">
-        <v>468.9632756469214</v>
+        <v>505.3799155438834</v>
       </c>
       <c r="R10">
-        <v>468.9632756469214</v>
+        <v>4548.41923989495</v>
       </c>
       <c r="S10">
-        <v>0.01670189459115913</v>
+        <v>0.01758436237558612</v>
       </c>
       <c r="T10">
-        <v>0.01670189459115913</v>
+        <v>0.01758436237558611</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.1102900908744</v>
+        <v>14.694925</v>
       </c>
       <c r="H11">
-        <v>14.1102900908744</v>
+        <v>44.084775</v>
       </c>
       <c r="I11">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012584</v>
       </c>
       <c r="J11">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012582</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N11">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O11">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P11">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q11">
-        <v>87.06337296321266</v>
+        <v>95.1419392343</v>
       </c>
       <c r="R11">
-        <v>87.06337296321266</v>
+        <v>856.2774531087001</v>
       </c>
       <c r="S11">
-        <v>0.003100718869673601</v>
+        <v>0.003310401314249803</v>
       </c>
       <c r="T11">
-        <v>0.003100718869673601</v>
+        <v>0.003310401314249802</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.0915812216584</v>
+        <v>43.213838</v>
       </c>
       <c r="H12">
-        <v>43.0915812216584</v>
+        <v>129.641514</v>
       </c>
       <c r="I12">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="J12">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N12">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O12">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P12">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q12">
-        <v>1846.810687411458</v>
+        <v>1854.271822503332</v>
       </c>
       <c r="R12">
-        <v>1846.810687411458</v>
+        <v>16688.44640252999</v>
       </c>
       <c r="S12">
-        <v>0.06577324714482638</v>
+        <v>0.06451817072043066</v>
       </c>
       <c r="T12">
-        <v>0.06577324714482638</v>
+        <v>0.06451817072043065</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.0915812216584</v>
+        <v>43.213838</v>
       </c>
       <c r="H13">
-        <v>43.0915812216584</v>
+        <v>129.641514</v>
       </c>
       <c r="I13">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="J13">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N13">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O13">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P13">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q13">
-        <v>2299.343464456943</v>
+        <v>2305.953775975734</v>
       </c>
       <c r="R13">
-        <v>2299.343464456943</v>
+        <v>20753.5839837816</v>
       </c>
       <c r="S13">
-        <v>0.08188997767310058</v>
+        <v>0.08023414775886061</v>
       </c>
       <c r="T13">
-        <v>0.08188997767310058</v>
+        <v>0.08023414775886059</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.0915812216584</v>
+        <v>43.213838</v>
       </c>
       <c r="H14">
-        <v>43.0915812216584</v>
+        <v>129.641514</v>
       </c>
       <c r="I14">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="J14">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N14">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O14">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P14">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q14">
-        <v>1684.76658451217</v>
+        <v>1727.769808238645</v>
       </c>
       <c r="R14">
-        <v>1684.76658451217</v>
+        <v>15549.9282741478</v>
       </c>
       <c r="S14">
-        <v>0.06000212674737226</v>
+        <v>0.06011661618362661</v>
       </c>
       <c r="T14">
-        <v>0.06000212674737226</v>
+        <v>0.06011661618362659</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.0915812216584</v>
+        <v>43.213838</v>
       </c>
       <c r="H15">
-        <v>43.0915812216584</v>
+        <v>129.641514</v>
       </c>
       <c r="I15">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="J15">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N15">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O15">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P15">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q15">
-        <v>1432.172475006997</v>
+        <v>1486.186952214255</v>
       </c>
       <c r="R15">
-        <v>1432.172475006997</v>
+        <v>13375.68256992829</v>
       </c>
       <c r="S15">
-        <v>0.05100611275142898</v>
+        <v>0.05171089930924273</v>
       </c>
       <c r="T15">
-        <v>0.05100611275142898</v>
+        <v>0.05171089930924271</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.0915812216584</v>
+        <v>43.213838</v>
       </c>
       <c r="H16">
-        <v>43.0915812216584</v>
+        <v>129.641514</v>
       </c>
       <c r="I16">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="J16">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N16">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O16">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P16">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q16">
-        <v>265.883860878393</v>
+        <v>279.786956998888</v>
       </c>
       <c r="R16">
-        <v>265.883860878393</v>
+        <v>2518.082612989992</v>
       </c>
       <c r="S16">
-        <v>0.009469321903203255</v>
+        <v>0.009735003486508307</v>
       </c>
       <c r="T16">
-        <v>0.009469321903203255</v>
+        <v>0.009735003486508305</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.6278027241374</v>
+        <v>34.20250066666667</v>
       </c>
       <c r="H17">
-        <v>33.6278027241374</v>
+        <v>102.607502</v>
       </c>
       <c r="I17">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415859</v>
       </c>
       <c r="J17">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415858</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N17">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O17">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P17">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q17">
-        <v>1441.213891540529</v>
+        <v>1467.602420441143</v>
       </c>
       <c r="R17">
-        <v>1441.213891540529</v>
+        <v>13208.42178397028</v>
       </c>
       <c r="S17">
-        <v>0.05132811831932661</v>
+        <v>0.05106426272708393</v>
       </c>
       <c r="T17">
-        <v>0.05132811831932661</v>
+        <v>0.05106426272708392</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.6278027241374</v>
+        <v>34.20250066666667</v>
       </c>
       <c r="H18">
-        <v>33.6278027241374</v>
+        <v>102.607502</v>
       </c>
       <c r="I18">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415859</v>
       </c>
       <c r="J18">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415858</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N18">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O18">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P18">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q18">
-        <v>1794.361363071303</v>
+        <v>1825.095599240978</v>
       </c>
       <c r="R18">
-        <v>1794.361363071303</v>
+        <v>16425.8603931688</v>
       </c>
       <c r="S18">
-        <v>0.06390529045824284</v>
+        <v>0.0635030031864298</v>
       </c>
       <c r="T18">
-        <v>0.06390529045824284</v>
+        <v>0.06350300318642979</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.6278027241374</v>
+        <v>34.20250066666667</v>
       </c>
       <c r="H19">
-        <v>33.6278027241374</v>
+        <v>102.607502</v>
       </c>
       <c r="I19">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415859</v>
       </c>
       <c r="J19">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415858</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N19">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O19">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P19">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q19">
-        <v>1314.757934937845</v>
+        <v>1367.47974151541</v>
       </c>
       <c r="R19">
-        <v>1314.757934937845</v>
+        <v>12307.31767363868</v>
       </c>
       <c r="S19">
-        <v>0.0468244521107334</v>
+        <v>0.04758055984516425</v>
       </c>
       <c r="T19">
-        <v>0.0468244521107334</v>
+        <v>0.04758055984516424</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.6278027241374</v>
+        <v>34.20250066666667</v>
       </c>
       <c r="H20">
-        <v>33.6278027241374</v>
+        <v>102.607502</v>
       </c>
       <c r="I20">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415859</v>
       </c>
       <c r="J20">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415858</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N20">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O20">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P20">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q20">
-        <v>1117.638575589531</v>
+        <v>1176.273910775973</v>
       </c>
       <c r="R20">
-        <v>1117.638575589531</v>
+        <v>10586.46519698376</v>
       </c>
       <c r="S20">
-        <v>0.03980414384209389</v>
+        <v>0.04092767849266957</v>
       </c>
       <c r="T20">
-        <v>0.03980414384209389</v>
+        <v>0.04092767849266956</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.6278027241374</v>
+        <v>34.20250066666667</v>
       </c>
       <c r="H21">
-        <v>33.6278027241374</v>
+        <v>102.607502</v>
       </c>
       <c r="I21">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415859</v>
       </c>
       <c r="J21">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415858</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N21">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O21">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P21">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q21">
-        <v>207.4904138504131</v>
+        <v>221.4432697063173</v>
       </c>
       <c r="R21">
-        <v>207.4904138504131</v>
+        <v>1992.989427356856</v>
       </c>
       <c r="S21">
-        <v>0.007389668233669364</v>
+        <v>0.007704973190238336</v>
       </c>
       <c r="T21">
-        <v>0.007389668233669364</v>
+        <v>0.007704973190238334</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.10582073260747</v>
+        <v>1.146216666666667</v>
       </c>
       <c r="H22">
-        <v>1.10582073260747</v>
+        <v>3.43865</v>
       </c>
       <c r="I22">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397381</v>
       </c>
       <c r="J22">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397379</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N22">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O22">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P22">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q22">
-        <v>47.39305194756199</v>
+        <v>49.18325624036667</v>
       </c>
       <c r="R22">
-        <v>47.39305194756199</v>
+        <v>442.6493061633</v>
       </c>
       <c r="S22">
-        <v>0.001687880051779286</v>
+        <v>0.001711299111701279</v>
       </c>
       <c r="T22">
-        <v>0.001687880051779286</v>
+        <v>0.001711299111701278</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.10582073260747</v>
+        <v>1.146216666666667</v>
       </c>
       <c r="H23">
-        <v>1.10582073260747</v>
+        <v>3.43865</v>
       </c>
       <c r="I23">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397381</v>
       </c>
       <c r="J23">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397379</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N23">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O23">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P23">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q23">
-        <v>59.00599612028159</v>
+        <v>61.16380245111112</v>
       </c>
       <c r="R23">
-        <v>59.00599612028159</v>
+        <v>550.4742220600001</v>
       </c>
       <c r="S23">
-        <v>0.002101469301807913</v>
+        <v>0.002128154351784306</v>
       </c>
       <c r="T23">
-        <v>0.002101469301807913</v>
+        <v>0.002128154351784305</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.10582073260747</v>
+        <v>1.146216666666667</v>
       </c>
       <c r="H24">
-        <v>1.10582073260747</v>
+        <v>3.43865</v>
       </c>
       <c r="I24">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397381</v>
       </c>
       <c r="J24">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397379</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N24">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O24">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P24">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q24">
-        <v>43.23465897374496</v>
+        <v>45.82787926327222</v>
       </c>
       <c r="R24">
-        <v>43.23465897374496</v>
+        <v>412.45091336945</v>
       </c>
       <c r="S24">
-        <v>0.001539780947384596</v>
+        <v>0.001594550972613816</v>
       </c>
       <c r="T24">
-        <v>0.001539780947384596</v>
+        <v>0.001594550972613815</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.10582073260747</v>
+        <v>1.146216666666667</v>
       </c>
       <c r="H25">
-        <v>1.10582073260747</v>
+        <v>3.43865</v>
       </c>
       <c r="I25">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397381</v>
       </c>
       <c r="J25">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397379</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N25">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O25">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P25">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q25">
-        <v>36.75256211615853</v>
+        <v>39.42006387885556</v>
       </c>
       <c r="R25">
-        <v>36.75256211615853</v>
+        <v>354.7805749097</v>
       </c>
       <c r="S25">
-        <v>0.001308924281058761</v>
+        <v>0.001371595243092637</v>
       </c>
       <c r="T25">
-        <v>0.001308924281058761</v>
+        <v>0.001371595243092636</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.10582073260747</v>
+        <v>1.146216666666667</v>
       </c>
       <c r="H26">
-        <v>1.10582073260747</v>
+        <v>3.43865</v>
       </c>
       <c r="I26">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397381</v>
       </c>
       <c r="J26">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397379</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N26">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O26">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P26">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q26">
-        <v>6.823139868380343</v>
+        <v>7.421152299133333</v>
       </c>
       <c r="R26">
-        <v>6.823139868380343</v>
+        <v>66.7903706922</v>
       </c>
       <c r="S26">
-        <v>0.0002430027440959427</v>
+        <v>0.0002582141222053438</v>
       </c>
       <c r="T26">
-        <v>0.0002430027440959427</v>
+        <v>0.0002582141222053437</v>
       </c>
     </row>
   </sheetData>
